--- a/addons/mobile/mobile.xlsx
+++ b/addons/mobile/mobile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PortableApps\Simple-Web-Server-Windows-1.2.15-x64\workfolder\addons\mobile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PortableApps\GitHubDesktopPortable-Kaddons\Data\kaddons.github.io\addons\mobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298376EA-0F98-4627-BFD7-0F0B72E475BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033DB31E-0715-4576-9AF8-E7E9F44548FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{42650763-0125-4CBD-B687-4938702E81BA}"/>
   </bookViews>
@@ -137,10 +137,10 @@
     <t>zankremote-20.0.9.apk</t>
   </si>
   <si>
-    <t>yrevancifyred-20.21.37 -arm7.apk</t>
-  </si>
-  <si>
-    <t>yrevancifyred-20.21.37 -arm64.apk</t>
+    <t>yrevancifyred-20.21.37-arm7.apk</t>
+  </si>
+  <si>
+    <t>yrevancifyred-20.21.37-arm64.apk</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1034,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="str">
-        <f>"files/" &amp; A2</f>
+        <f t="shared" ref="B2:B29" si="0">"files/" &amp; A2</f>
         <v>files/ymicrog-0.3.1.4.240913.apk</v>
       </c>
       <c r="C2" s="1">
@@ -1049,8 +1049,8 @@
         <v>33</v>
       </c>
       <c r="B3" t="str">
-        <f>"files/" &amp; A3</f>
-        <v>files/yrevancifyred-20.21.37 -arm7.apk</v>
+        <f t="shared" si="0"/>
+        <v>files/yrevancifyred-20.21.37-arm7.apk</v>
       </c>
       <c r="C3" s="1">
         <v>45905</v>
@@ -1064,8 +1064,8 @@
         <v>34</v>
       </c>
       <c r="B4" t="str">
-        <f>"files/" &amp; A4</f>
-        <v>files/yrevancifyred-20.21.37 -arm64.apk</v>
+        <f t="shared" si="0"/>
+        <v>files/yrevancifyred-20.21.37-arm64.apk</v>
       </c>
       <c r="C4" s="1">
         <v>45905</v>
@@ -1079,7 +1079,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="str">
-        <f>"files/" &amp; A5</f>
+        <f t="shared" si="0"/>
         <v>files/InfoHW-5.23.0.apk</v>
       </c>
       <c r="C5" s="1">
@@ -1094,7 +1094,7 @@
         <v>22</v>
       </c>
       <c r="B6" t="str">
-        <f>"files/" &amp; A6</f>
+        <f t="shared" si="0"/>
         <v>files/vlc-3.6.3-arm64.apk</v>
       </c>
       <c r="C6" s="1">
@@ -1109,7 +1109,7 @@
         <v>26</v>
       </c>
       <c r="B7" t="str">
-        <f>"files/" &amp; A7</f>
+        <f t="shared" si="0"/>
         <v>files/rustdesk-1.4.1-arm64.apk</v>
       </c>
       <c r="C7" s="1">
@@ -1124,7 +1124,7 @@
         <v>29</v>
       </c>
       <c r="B8" t="str">
-        <f>"files/" &amp; A8</f>
+        <f t="shared" si="0"/>
         <v>files/webcaster-5.12.6.apk</v>
       </c>
       <c r="C8" s="1">
@@ -1139,7 +1139,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="str">
-        <f>"files/" &amp; A9</f>
+        <f t="shared" si="0"/>
         <v>files/ott-1.7.3.2.apk</v>
       </c>
       <c r="C9" s="1">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="B10" t="str">
-        <f>"files/" &amp; A10</f>
+        <f t="shared" si="0"/>
         <v>files/psivpn-4.1.0.apk</v>
       </c>
       <c r="C10" s="1">
@@ -1169,7 +1169,7 @@
         <v>30</v>
       </c>
       <c r="B11" t="str">
-        <f>"files/" &amp; A11</f>
+        <f t="shared" si="0"/>
         <v>files/fireremote-1.6.7.apk</v>
       </c>
       <c r="C11" s="1">
@@ -1184,7 +1184,7 @@
         <v>31</v>
       </c>
       <c r="B12" t="str">
-        <f>"files/" &amp; A12</f>
+        <f t="shared" si="0"/>
         <v>files/onnremote-10.12.112.apk</v>
       </c>
       <c r="C12" s="1">
@@ -1199,7 +1199,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="str">
-        <f>"files/" &amp; A13</f>
+        <f t="shared" si="0"/>
         <v>files/zankremote-20.0.9.apk</v>
       </c>
       <c r="C13" s="1">
@@ -1214,7 +1214,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="str">
-        <f>"files/" &amp; A14</f>
+        <f t="shared" si="0"/>
         <v>files/fmanager-3.6.3.apk</v>
       </c>
       <c r="C14" s="1">
@@ -1229,7 +1229,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="str">
-        <f>"files/" &amp; A15</f>
+        <f t="shared" si="0"/>
         <v>files/onmo-1.1.7.apk</v>
       </c>
       <c r="C15" s="1">
@@ -1244,7 +1244,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="str">
-        <f>"files/" &amp; A16</f>
+        <f t="shared" si="0"/>
         <v>files/onmosp-1.3.5-arm7.apk</v>
       </c>
       <c r="C16" s="1">
@@ -1259,7 +1259,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="str">
-        <f>"files/" &amp; A17</f>
+        <f t="shared" si="0"/>
         <v>files/onmosp-1.3.5-arm64.apk</v>
       </c>
       <c r="C17" s="1">
@@ -1274,7 +1274,7 @@
         <v>24</v>
       </c>
       <c r="B18" t="str">
-        <f>"files/" &amp; A18</f>
+        <f t="shared" si="0"/>
         <v>files/yseal-1.13.1-arm7.apk</v>
       </c>
       <c r="C18" s="1">
@@ -1289,7 +1289,7 @@
         <v>25</v>
       </c>
       <c r="B19" t="str">
-        <f>"files/" &amp; A19</f>
+        <f t="shared" si="0"/>
         <v>files/yseal-1.13.1-arm64.apk</v>
       </c>
       <c r="C19" s="1">
@@ -1304,7 +1304,7 @@
         <v>10</v>
       </c>
       <c r="B20" t="str">
-        <f>"files/" &amp; A20</f>
+        <f t="shared" si="0"/>
         <v>files/hdomo-2.1.1-arm7.apk</v>
       </c>
       <c r="C20" s="1">
@@ -1319,7 +1319,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="str">
-        <f>"files/" &amp; A21</f>
+        <f t="shared" si="0"/>
         <v>files/hdomo-2.1.1-arm64.apk</v>
       </c>
       <c r="C21" s="1">
@@ -1334,7 +1334,7 @@
         <v>12</v>
       </c>
       <c r="B22" t="str">
-        <f>"files/" &amp; A22</f>
+        <f t="shared" si="0"/>
         <v>files/hdomomp-1.1.6-arm7.apk</v>
       </c>
       <c r="C22" s="1">
@@ -1349,7 +1349,7 @@
         <v>13</v>
       </c>
       <c r="B23" t="str">
-        <f>"files/" &amp; A23</f>
+        <f t="shared" si="0"/>
         <v>files/hdomomp-1.1.6-arm64.apk</v>
       </c>
       <c r="C23" s="1">
@@ -1364,7 +1364,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="str">
-        <f>"files/" &amp; A24</f>
+        <f t="shared" si="0"/>
         <v>files/shell-1.7.2.apk</v>
       </c>
       <c r="C24" s="1">
@@ -1379,7 +1379,7 @@
         <v>20</v>
       </c>
       <c r="B25" t="str">
-        <f>"files/" &amp; A25</f>
+        <f t="shared" si="0"/>
         <v>files/playkodi-1.75.apk</v>
       </c>
       <c r="C25" s="1">
@@ -1394,7 +1394,7 @@
         <v>7</v>
       </c>
       <c r="B26" t="str">
-        <f>"files/" &amp; A26</f>
+        <f t="shared" si="0"/>
         <v>files/blok-5.23.2.1.apk</v>
       </c>
       <c r="C26" s="1">
@@ -1409,7 +1409,7 @@
         <v>8</v>
       </c>
       <c r="B27" t="str">
-        <f>"files/" &amp; A27</f>
+        <f t="shared" si="0"/>
         <v>files/es-3.2.5.5.apk</v>
       </c>
       <c r="C27" s="1">
@@ -1424,7 +1424,7 @@
         <v>18</v>
       </c>
       <c r="B28" t="str">
-        <f>"files/" &amp; A28</f>
+        <f t="shared" si="0"/>
         <v>files/orient-1.1.4.apk</v>
       </c>
       <c r="C28" s="1">
@@ -1439,7 +1439,7 @@
         <v>19</v>
       </c>
       <c r="B29" t="str">
-        <f>"files/" &amp; A29</f>
+        <f t="shared" si="0"/>
         <v>files/permission-1.0.3.apk</v>
       </c>
       <c r="C29" s="1">

--- a/addons/mobile/mobile.xlsx
+++ b/addons/mobile/mobile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PortableApps\GitHubDesktopPortable-Kaddons\Data\kaddons.github.io\addons\mobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033DB31E-0715-4576-9AF8-E7E9F44548FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094A7C41-F098-4A80-97FE-D44C28993A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{42650763-0125-4CBD-B687-4938702E81BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -65,9 +65,6 @@
     <t>es-3.2.5.5.apk</t>
   </si>
   <si>
-    <t>fmanager-3.6.3.apk</t>
-  </si>
-  <si>
     <t>hdomo-2.1.1-arm7.apk</t>
   </si>
   <si>
@@ -141,6 +138,12 @@
   </si>
   <si>
     <t>yrevancifyred-20.21.37-arm64.apk</t>
+  </si>
+  <si>
+    <t>fmanager-3.6.4.apk</t>
+  </si>
+  <si>
+    <t>psivpn-4.3.9.apk</t>
   </si>
 </sst>
 </file>
@@ -1002,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9A25EF-1B7A-4619-AB7A-FD7FFA861628}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,14 +1034,14 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B29" si="0">"files/" &amp; A2</f>
-        <v>files/ymicrog-0.3.1.4.240913.apk</v>
+        <f>"files/" &amp; A2</f>
+        <v>files/psivpn-4.3.9.apk</v>
       </c>
       <c r="C2" s="1">
-        <v>45905</v>
+        <v>45967</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -1046,14 +1049,14 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" si="0"/>
-        <v>files/yrevancifyred-20.21.37-arm7.apk</v>
+        <f>"files/" &amp; A3</f>
+        <v>files/fmanager-3.6.4.apk</v>
       </c>
       <c r="C3" s="1">
-        <v>45905</v>
+        <v>45967</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -1061,11 +1064,11 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>files/yrevancifyred-20.21.37-arm64.apk</v>
+        <f>"files/" &amp; A4</f>
+        <v>files/ymicrog-0.3.1.4.240913.apk</v>
       </c>
       <c r="C4" s="1">
         <v>45905</v>
@@ -1076,29 +1079,29 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>files/InfoHW-5.23.0.apk</v>
+        <f>"files/" &amp; A5</f>
+        <v>files/yrevancifyred-20.21.37-arm7.apk</v>
       </c>
       <c r="C5" s="1">
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>files/vlc-3.6.3-arm64.apk</v>
+        <f>"files/" &amp; A6</f>
+        <v>files/yrevancifyred-20.21.37-arm64.apk</v>
       </c>
       <c r="C6" s="1">
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -1106,11 +1109,11 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>files/rustdesk-1.4.1-arm64.apk</v>
+        <f>"files/" &amp; A7</f>
+        <v>files/InfoHW-5.23.0.apk</v>
       </c>
       <c r="C7" s="1">
         <v>45904</v>
@@ -1121,11 +1124,11 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>files/webcaster-5.12.6.apk</v>
+        <f>"files/" &amp; A8</f>
+        <v>files/vlc-3.6.3-arm64.apk</v>
       </c>
       <c r="C8" s="1">
         <v>45904</v>
@@ -1136,26 +1139,26 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>files/ott-1.7.3.2.apk</v>
+        <f>"files/" &amp; A9</f>
+        <v>files/rustdesk-1.4.1-arm64.apk</v>
       </c>
       <c r="C9" s="1">
         <v>45904</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>files/psivpn-4.1.0.apk</v>
+        <f>"files/" &amp; A10</f>
+        <v>files/webcaster-5.12.6.apk</v>
       </c>
       <c r="C10" s="1">
         <v>45904</v>
@@ -1166,41 +1169,41 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>files/fireremote-1.6.7.apk</v>
+        <f>"files/" &amp; A11</f>
+        <v>files/ott-1.7.3.2.apk</v>
       </c>
       <c r="C11" s="1">
         <v>45904</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>files/onnremote-10.12.112.apk</v>
+        <f>"files/" &amp; A12</f>
+        <v>files/psivpn-4.1.0.apk</v>
       </c>
       <c r="C12" s="1">
         <v>45904</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>files/zankremote-20.0.9.apk</v>
+        <f>"files/" &amp; A13</f>
+        <v>files/fireremote-1.6.7.apk</v>
       </c>
       <c r="C13" s="1">
         <v>45904</v>
@@ -1211,41 +1214,41 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>files/fmanager-3.6.3.apk</v>
+        <f>"files/" &amp; A14</f>
+        <v>files/onnremote-10.12.112.apk</v>
       </c>
       <c r="C14" s="1">
-        <v>45890</v>
+        <v>45904</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>files/onmo-1.1.7.apk</v>
+        <f>"files/" &amp; A15</f>
+        <v>files/zankremote-20.0.9.apk</v>
       </c>
       <c r="C15" s="1">
-        <v>45852</v>
+        <v>45904</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>files/onmosp-1.3.5-arm7.apk</v>
+        <f>"files/" &amp; A16</f>
+        <v>files/onmo-1.1.7.apk</v>
       </c>
       <c r="C16" s="1">
         <v>45852</v>
@@ -1256,11 +1259,11 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>files/onmosp-1.3.5-arm64.apk</v>
+        <f>"files/" &amp; A17</f>
+        <v>files/onmosp-1.3.5-arm7.apk</v>
       </c>
       <c r="C17" s="1">
         <v>45852</v>
@@ -1271,14 +1274,14 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>files/yseal-1.13.1-arm7.apk</v>
+        <f>"files/" &amp; A18</f>
+        <v>files/onmosp-1.3.5-arm64.apk</v>
       </c>
       <c r="C18" s="1">
-        <v>45815</v>
+        <v>45852</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -1286,11 +1289,11 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>files/yseal-1.13.1-arm64.apk</v>
+        <f>"files/" &amp; A19</f>
+        <v>files/yseal-1.13.1-arm7.apk</v>
       </c>
       <c r="C19" s="1">
         <v>45815</v>
@@ -1301,14 +1304,14 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>files/hdomo-2.1.1-arm7.apk</v>
+        <f>"files/" &amp; A20</f>
+        <v>files/yseal-1.13.1-arm64.apk</v>
       </c>
       <c r="C20" s="1">
-        <v>45764</v>
+        <v>45815</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -1316,11 +1319,11 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>files/hdomo-2.1.1-arm64.apk</v>
+        <f>"files/" &amp; A21</f>
+        <v>files/hdomo-2.1.1-arm7.apk</v>
       </c>
       <c r="C21" s="1">
         <v>45764</v>
@@ -1331,11 +1334,11 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>files/hdomomp-1.1.6-arm7.apk</v>
+        <f>"files/" &amp; A22</f>
+        <v>files/hdomo-2.1.1-arm64.apk</v>
       </c>
       <c r="C22" s="1">
         <v>45764</v>
@@ -1346,11 +1349,11 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>files/hdomomp-1.1.6-arm64.apk</v>
+        <f>"files/" &amp; A23</f>
+        <v>files/hdomomp-1.1.6-arm7.apk</v>
       </c>
       <c r="C23" s="1">
         <v>45764</v>
@@ -1361,14 +1364,14 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>files/shell-1.7.2.apk</v>
+        <f>"files/" &amp; A24</f>
+        <v>files/hdomomp-1.1.6-arm64.apk</v>
       </c>
       <c r="C24" s="1">
-        <v>45202</v>
+        <v>45764</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
@@ -1379,26 +1382,26 @@
         <v>20</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>files/playkodi-1.75.apk</v>
+        <f>"files/" &amp; A25</f>
+        <v>files/shell-1.7.2.apk</v>
       </c>
       <c r="C25" s="1">
-        <v>45154</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>files/blok-5.23.2.1.apk</v>
+        <f>"files/" &amp; A26</f>
+        <v>files/playkodi-1.75.apk</v>
       </c>
       <c r="C26" s="1">
-        <v>43665</v>
+        <v>45154</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
@@ -1406,11 +1409,11 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>files/es-3.2.5.5.apk</v>
+        <f>"files/" &amp; A27</f>
+        <v>files/blok-5.23.2.1.apk</v>
       </c>
       <c r="C27" s="1">
         <v>43665</v>
@@ -1421,11 +1424,11 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>files/orient-1.1.4.apk</v>
+        <f>"files/" &amp; A28</f>
+        <v>files/es-3.2.5.5.apk</v>
       </c>
       <c r="C28" s="1">
         <v>43665</v>
@@ -1436,11 +1439,11 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>files/permission-1.0.3.apk</v>
+        <f>"files/" &amp; A29</f>
+        <v>files/orient-1.1.4.apk</v>
       </c>
       <c r="C29" s="1">
         <v>43665</v>
@@ -1449,9 +1452,24 @@
         <v>6</v>
       </c>
     </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" t="str">
+        <f>"files/" &amp; A30</f>
+        <v>files/permission-1.0.3.apk</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43665</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D29">
-    <sortCondition descending="1" ref="C1:C29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D30">
+    <sortCondition descending="1" ref="C1:C30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
